--- a/database/industries/darou/deabid/income/quarterly/rial.xlsx
+++ b/database/industries/darou/deabid/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\deabid\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deabid\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB86ADB-F76A-4BE8-B1C5-3FADE42C1E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E069EB67-EE15-413A-B6BB-A67272205A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,18 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -52,13 +64,28 @@
     <t>فصل سوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1400-08-08 (4)</t>
+  </si>
+  <si>
+    <t>1400-12-04 (10)</t>
+  </si>
+  <si>
+    <t>1401-01-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-06-12 (5)</t>
+  </si>
+  <si>
     <t>1401-07-29 (3)</t>
   </si>
   <si>
-    <t>1401-07-29 (6)</t>
+    <t>1401-11-30 (7)</t>
   </si>
   <si>
     <t>1401-01-30</t>
@@ -68,6 +95,9 @@
   </si>
   <si>
     <t>1401-07-29</t>
+  </si>
+  <si>
+    <t>1401-11-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -585,20 +615,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -606,8 +639,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +655,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +671,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -637,8 +685,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +701,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +717,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,8 +731,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,29 +757,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -719,94 +817,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>3943903</v>
+      </c>
+      <c r="E11" s="13">
+        <v>4811190</v>
+      </c>
+      <c r="F11" s="13">
+        <v>4543096</v>
+      </c>
+      <c r="G11" s="13">
+        <v>4479921</v>
+      </c>
+      <c r="H11" s="13">
         <v>6902823</v>
       </c>
-      <c r="E11" s="13">
+      <c r="I11" s="13">
         <v>7632782</v>
       </c>
-      <c r="F11" s="13">
+      <c r="J11" s="13">
         <v>8208603</v>
       </c>
-      <c r="G11" s="13">
+      <c r="K11" s="13">
         <v>8156697</v>
       </c>
-      <c r="H11" s="13">
+      <c r="L11" s="13">
         <v>11539266</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M11" s="13">
+        <v>16116832</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-1485398</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-1929366</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-1740002</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-1751004</v>
+      </c>
+      <c r="H12" s="11">
         <v>-2950061</v>
       </c>
-      <c r="E12" s="11">
+      <c r="I12" s="11">
         <v>-3033101</v>
       </c>
-      <c r="F12" s="11">
+      <c r="J12" s="11">
         <v>-3449223</v>
       </c>
-      <c r="G12" s="11">
+      <c r="K12" s="11">
         <v>-3508628</v>
       </c>
-      <c r="H12" s="11">
+      <c r="L12" s="11">
         <v>-3954377</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M12" s="11">
+        <v>-5703091</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>2458505</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2881824</v>
+      </c>
+      <c r="F13" s="15">
+        <v>2803094</v>
+      </c>
+      <c r="G13" s="15">
+        <v>2728917</v>
+      </c>
+      <c r="H13" s="15">
         <v>3952762</v>
       </c>
-      <c r="E13" s="15">
+      <c r="I13" s="15">
         <v>4599681</v>
       </c>
-      <c r="F13" s="15">
+      <c r="J13" s="15">
         <v>4759380</v>
       </c>
-      <c r="G13" s="15">
+      <c r="K13" s="15">
         <v>4648069</v>
       </c>
-      <c r="H13" s="15">
+      <c r="L13" s="15">
         <v>7584889</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M13" s="15">
+        <v>10413741</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-576916</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-791847</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-749314</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-920163</v>
+      </c>
+      <c r="H14" s="11">
         <v>-796470</v>
       </c>
-      <c r="E14" s="11">
+      <c r="I14" s="11">
         <v>-1206594</v>
       </c>
-      <c r="F14" s="11">
+      <c r="J14" s="11">
         <v>-1157341</v>
       </c>
-      <c r="G14" s="11">
+      <c r="K14" s="11">
         <v>-1458261</v>
       </c>
-      <c r="H14" s="11">
+      <c r="L14" s="11">
         <v>-1509943</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M14" s="11">
+        <v>-1924669</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -824,157 +987,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>40871</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-236102</v>
+      </c>
+      <c r="F16" s="11">
+        <v>25084</v>
+      </c>
+      <c r="G16" s="11">
+        <v>36237</v>
+      </c>
+      <c r="H16" s="11">
         <v>-7942</v>
       </c>
-      <c r="E16" s="11">
+      <c r="I16" s="11">
         <v>-15589</v>
       </c>
-      <c r="F16" s="11">
+      <c r="J16" s="11">
         <v>14886</v>
       </c>
-      <c r="G16" s="11">
+      <c r="K16" s="11">
         <v>41598</v>
       </c>
-      <c r="H16" s="11">
+      <c r="L16" s="11">
         <v>62241</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M16" s="11">
+        <v>-238822</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>1922460</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1853875</v>
+      </c>
+      <c r="F17" s="15">
+        <v>2078864</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1844991</v>
+      </c>
+      <c r="H17" s="15">
         <v>3148350</v>
       </c>
-      <c r="E17" s="15">
+      <c r="I17" s="15">
         <v>3377498</v>
       </c>
-      <c r="F17" s="15">
+      <c r="J17" s="15">
         <v>3616925</v>
       </c>
-      <c r="G17" s="15">
+      <c r="K17" s="15">
         <v>3231406</v>
       </c>
-      <c r="H17" s="15">
+      <c r="L17" s="15">
         <v>6137187</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M17" s="15">
+        <v>8250250</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-157542</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-350567</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-409365</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-640000</v>
+      </c>
+      <c r="H18" s="11">
         <v>-606234</v>
       </c>
-      <c r="E18" s="11">
+      <c r="I18" s="11">
         <v>-487558</v>
       </c>
-      <c r="F18" s="11">
+      <c r="J18" s="11">
         <v>-691719</v>
       </c>
-      <c r="G18" s="11">
+      <c r="K18" s="11">
         <v>-1044837</v>
       </c>
-      <c r="H18" s="11">
+      <c r="L18" s="11">
         <v>-1268770</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M18" s="11">
+        <v>-888432</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>-39616</v>
+      </c>
+      <c r="E19" s="13">
+        <v>99367</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-1420</v>
+      </c>
+      <c r="G19" s="13">
+        <v>44149</v>
+      </c>
+      <c r="H19" s="13">
         <v>40029</v>
       </c>
-      <c r="E19" s="13">
+      <c r="I19" s="13">
         <v>-21719</v>
       </c>
-      <c r="F19" s="13">
+      <c r="J19" s="13">
         <v>11190</v>
       </c>
-      <c r="G19" s="13">
+      <c r="K19" s="13">
         <v>72013</v>
       </c>
-      <c r="H19" s="13">
+      <c r="L19" s="13">
         <v>106662</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M19" s="13">
+        <v>-143215</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>1725302</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1602675</v>
+      </c>
+      <c r="F20" s="17">
+        <v>1668079</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1249140</v>
+      </c>
+      <c r="H20" s="17">
         <v>2582145</v>
       </c>
-      <c r="E20" s="17">
+      <c r="I20" s="17">
         <v>2868221</v>
       </c>
-      <c r="F20" s="17">
+      <c r="J20" s="17">
         <v>2936396</v>
       </c>
-      <c r="G20" s="17">
+      <c r="K20" s="17">
         <v>2258582</v>
       </c>
-      <c r="H20" s="17">
+      <c r="L20" s="17">
         <v>4975079</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M20" s="17">
+        <v>7218603</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-387583</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-86134</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-417020</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-297699</v>
+      </c>
+      <c r="H21" s="13">
         <v>-632625</v>
       </c>
-      <c r="E21" s="13">
+      <c r="I21" s="13">
         <v>-158821</v>
       </c>
-      <c r="F21" s="13">
+      <c r="J21" s="13">
         <v>-719417</v>
       </c>
-      <c r="G21" s="13">
+      <c r="K21" s="13">
         <v>-397503</v>
       </c>
-      <c r="H21" s="13">
+      <c r="L21" s="13">
         <v>-1069642</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M21" s="13">
+        <v>-116888</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>1337719</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1516541</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1251059</v>
+      </c>
+      <c r="G22" s="17">
+        <v>951441</v>
+      </c>
+      <c r="H22" s="17">
         <v>1949520</v>
       </c>
-      <c r="E22" s="17">
+      <c r="I22" s="17">
         <v>2709400</v>
       </c>
-      <c r="F22" s="17">
+      <c r="J22" s="17">
         <v>2216979</v>
       </c>
-      <c r="G22" s="17">
+      <c r="K22" s="17">
         <v>1861079</v>
       </c>
-      <c r="H22" s="17">
+      <c r="L22" s="17">
         <v>3905437</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M22" s="17">
+        <v>7101715</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -992,52 +1275,97 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>1337719</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1516541</v>
+      </c>
+      <c r="F24" s="17">
+        <v>1251059</v>
+      </c>
+      <c r="G24" s="17">
+        <v>951441</v>
+      </c>
+      <c r="H24" s="17">
         <v>1949520</v>
       </c>
-      <c r="E24" s="17">
+      <c r="I24" s="17">
         <v>2709400</v>
       </c>
-      <c r="F24" s="17">
+      <c r="J24" s="17">
         <v>2216979</v>
       </c>
-      <c r="G24" s="17">
+      <c r="K24" s="17">
         <v>1861079</v>
       </c>
-      <c r="H24" s="17">
+      <c r="L24" s="17">
         <v>3905437</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M24" s="17">
+        <v>7101715</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>297</v>
+      </c>
+      <c r="E25" s="13">
+        <v>337</v>
+      </c>
+      <c r="F25" s="13">
+        <v>278</v>
+      </c>
+      <c r="G25" s="13">
+        <v>211</v>
+      </c>
+      <c r="H25" s="13">
         <v>433</v>
       </c>
-      <c r="E25" s="13">
-        <v>602</v>
-      </c>
-      <c r="F25" s="13">
+      <c r="I25" s="13">
+        <v>201</v>
+      </c>
+      <c r="J25" s="13">
         <v>493</v>
       </c>
-      <c r="G25" s="13">
+      <c r="K25" s="13">
         <v>414</v>
       </c>
-      <c r="H25" s="13">
+      <c r="L25" s="13">
         <v>289</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M25" s="13">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1053,31 +1381,61 @@
         <v>4500000</v>
       </c>
       <c r="H26" s="11">
+        <v>4500000</v>
+      </c>
+      <c r="I26" s="11">
         <v>13500000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J26" s="11">
+        <v>4500000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>4500000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>13500000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>13500000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>99</v>
+      </c>
+      <c r="E27" s="13">
+        <v>112</v>
+      </c>
+      <c r="F27" s="13">
+        <v>93</v>
+      </c>
+      <c r="G27" s="13">
+        <v>70</v>
+      </c>
+      <c r="H27" s="13">
         <v>144</v>
       </c>
-      <c r="E27" s="13">
+      <c r="I27" s="13">
         <v>201</v>
       </c>
-      <c r="F27" s="13">
+      <c r="J27" s="13">
         <v>164</v>
       </c>
-      <c r="G27" s="13">
+      <c r="K27" s="13">
         <v>138</v>
       </c>
-      <c r="H27" s="13">
+      <c r="L27" s="13">
         <v>289</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M27" s="13">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1085,6 +1443,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/darou/deabid/income/quarterly/rial.xlsx
+++ b/database/industries/darou/deabid/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deabid\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deabid\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E069EB67-EE15-413A-B6BB-A67272205A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041FFEC7-AD27-4FF7-B31A-173ACBBCCDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل چهارم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-08 (4)</t>
-  </si>
-  <si>
     <t>1400-12-04 (10)</t>
   </si>
   <si>
@@ -85,10 +82,10 @@
     <t>1401-07-29 (3)</t>
   </si>
   <si>
-    <t>1401-11-30 (7)</t>
-  </si>
-  <si>
-    <t>1401-01-30</t>
+    <t>1402-01-08 (9)</t>
+  </si>
+  <si>
+    <t>1402-01-29 (2)</t>
   </si>
   <si>
     <t>1401-06-12 (2)</t>
@@ -97,7 +94,10 @@
     <t>1401-07-29</t>
   </si>
   <si>
-    <t>1401-11-30</t>
+    <t>1402-01-29 (4)</t>
+  </si>
+  <si>
+    <t>1402-01-29</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,19 +619,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -645,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -809,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -823,151 +823,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>3943903</v>
+        <v>4811190</v>
       </c>
       <c r="E11" s="13">
-        <v>4811190</v>
+        <v>4543096</v>
       </c>
       <c r="F11" s="13">
-        <v>4543096</v>
+        <v>4479921</v>
       </c>
       <c r="G11" s="13">
-        <v>4479921</v>
+        <v>6902823</v>
       </c>
       <c r="H11" s="13">
-        <v>6902823</v>
+        <v>7632782</v>
       </c>
       <c r="I11" s="13">
-        <v>7632782</v>
+        <v>8208603</v>
       </c>
       <c r="J11" s="13">
-        <v>8208603</v>
+        <v>8156697</v>
       </c>
       <c r="K11" s="13">
-        <v>8156697</v>
+        <v>11539266</v>
       </c>
       <c r="L11" s="13">
-        <v>11539266</v>
+        <v>16116832</v>
       </c>
       <c r="M11" s="13">
-        <v>16116832</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15223330</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-1485398</v>
+        <v>-1929366</v>
       </c>
       <c r="E12" s="11">
-        <v>-1929366</v>
+        <v>-1740002</v>
       </c>
       <c r="F12" s="11">
-        <v>-1740002</v>
+        <v>-1751004</v>
       </c>
       <c r="G12" s="11">
-        <v>-1751004</v>
+        <v>-2950061</v>
       </c>
       <c r="H12" s="11">
-        <v>-2950061</v>
+        <v>-3033101</v>
       </c>
       <c r="I12" s="11">
-        <v>-3033101</v>
+        <v>-3449223</v>
       </c>
       <c r="J12" s="11">
-        <v>-3449223</v>
+        <v>-3508628</v>
       </c>
       <c r="K12" s="11">
-        <v>-3508628</v>
+        <v>-3954377</v>
       </c>
       <c r="L12" s="11">
-        <v>-3954377</v>
+        <v>-5703091</v>
       </c>
       <c r="M12" s="11">
-        <v>-5703091</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-5490754</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>2458505</v>
+        <v>2881824</v>
       </c>
       <c r="E13" s="15">
-        <v>2881824</v>
+        <v>2803094</v>
       </c>
       <c r="F13" s="15">
-        <v>2803094</v>
+        <v>2728917</v>
       </c>
       <c r="G13" s="15">
-        <v>2728917</v>
+        <v>3952762</v>
       </c>
       <c r="H13" s="15">
-        <v>3952762</v>
+        <v>4599681</v>
       </c>
       <c r="I13" s="15">
-        <v>4599681</v>
+        <v>4759380</v>
       </c>
       <c r="J13" s="15">
-        <v>4759380</v>
+        <v>4648069</v>
       </c>
       <c r="K13" s="15">
-        <v>4648069</v>
+        <v>7584889</v>
       </c>
       <c r="L13" s="15">
-        <v>7584889</v>
+        <v>10413741</v>
       </c>
       <c r="M13" s="15">
-        <v>10413741</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>9732576</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-576916</v>
+        <v>-791847</v>
       </c>
       <c r="E14" s="11">
-        <v>-791847</v>
+        <v>-749314</v>
       </c>
       <c r="F14" s="11">
-        <v>-749314</v>
+        <v>-920163</v>
       </c>
       <c r="G14" s="11">
-        <v>-920163</v>
+        <v>-796470</v>
       </c>
       <c r="H14" s="11">
-        <v>-796470</v>
+        <v>-1206594</v>
       </c>
       <c r="I14" s="11">
-        <v>-1206594</v>
+        <v>-1157341</v>
       </c>
       <c r="J14" s="11">
-        <v>-1157341</v>
+        <v>-1458261</v>
       </c>
       <c r="K14" s="11">
-        <v>-1458261</v>
+        <v>-1509943</v>
       </c>
       <c r="L14" s="11">
-        <v>-1509943</v>
+        <v>-1924669</v>
       </c>
       <c r="M14" s="11">
-        <v>-1924669</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1772672</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1003,259 +1003,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>40871</v>
+        <v>-236102</v>
       </c>
       <c r="E16" s="11">
-        <v>-236102</v>
+        <v>25084</v>
       </c>
       <c r="F16" s="11">
-        <v>25084</v>
+        <v>36237</v>
       </c>
       <c r="G16" s="11">
-        <v>36237</v>
+        <v>-7942</v>
       </c>
       <c r="H16" s="11">
-        <v>-7942</v>
+        <v>-15589</v>
       </c>
       <c r="I16" s="11">
-        <v>-15589</v>
+        <v>14886</v>
       </c>
       <c r="J16" s="11">
-        <v>14886</v>
+        <v>41598</v>
       </c>
       <c r="K16" s="11">
-        <v>41598</v>
+        <v>62241</v>
       </c>
       <c r="L16" s="11">
-        <v>62241</v>
+        <v>-238822</v>
       </c>
       <c r="M16" s="11">
-        <v>-238822</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-15035</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>1922460</v>
+        <v>1853875</v>
       </c>
       <c r="E17" s="15">
-        <v>1853875</v>
+        <v>2078864</v>
       </c>
       <c r="F17" s="15">
-        <v>2078864</v>
+        <v>1844991</v>
       </c>
       <c r="G17" s="15">
-        <v>1844991</v>
+        <v>3148350</v>
       </c>
       <c r="H17" s="15">
-        <v>3148350</v>
+        <v>3377498</v>
       </c>
       <c r="I17" s="15">
-        <v>3377498</v>
+        <v>3616925</v>
       </c>
       <c r="J17" s="15">
-        <v>3616925</v>
+        <v>3231406</v>
       </c>
       <c r="K17" s="15">
-        <v>3231406</v>
+        <v>6137187</v>
       </c>
       <c r="L17" s="15">
-        <v>6137187</v>
+        <v>8250250</v>
       </c>
       <c r="M17" s="15">
-        <v>8250250</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7944869</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-157542</v>
+        <v>-350567</v>
       </c>
       <c r="E18" s="11">
-        <v>-350567</v>
+        <v>-409365</v>
       </c>
       <c r="F18" s="11">
-        <v>-409365</v>
+        <v>-640000</v>
       </c>
       <c r="G18" s="11">
-        <v>-640000</v>
+        <v>-606234</v>
       </c>
       <c r="H18" s="11">
-        <v>-606234</v>
+        <v>-487558</v>
       </c>
       <c r="I18" s="11">
-        <v>-487558</v>
+        <v>-691719</v>
       </c>
       <c r="J18" s="11">
-        <v>-691719</v>
+        <v>-1044837</v>
       </c>
       <c r="K18" s="11">
-        <v>-1044837</v>
+        <v>-1268770</v>
       </c>
       <c r="L18" s="11">
-        <v>-1268770</v>
+        <v>-888432</v>
       </c>
       <c r="M18" s="11">
-        <v>-888432</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1323360</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>-39616</v>
+        <v>99367</v>
       </c>
       <c r="E19" s="13">
-        <v>99367</v>
+        <v>-1420</v>
       </c>
       <c r="F19" s="13">
-        <v>-1420</v>
+        <v>44149</v>
       </c>
       <c r="G19" s="13">
-        <v>44149</v>
+        <v>40029</v>
       </c>
       <c r="H19" s="13">
-        <v>40029</v>
+        <v>-21719</v>
       </c>
       <c r="I19" s="13">
-        <v>-21719</v>
+        <v>11191</v>
       </c>
       <c r="J19" s="13">
-        <v>11190</v>
+        <v>72013</v>
       </c>
       <c r="K19" s="13">
-        <v>72013</v>
+        <v>106662</v>
       </c>
       <c r="L19" s="13">
-        <v>106662</v>
+        <v>-142946</v>
       </c>
       <c r="M19" s="13">
-        <v>-143215</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>579389</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>1725302</v>
+        <v>1602675</v>
       </c>
       <c r="E20" s="17">
-        <v>1602675</v>
+        <v>1668079</v>
       </c>
       <c r="F20" s="17">
-        <v>1668079</v>
+        <v>1249140</v>
       </c>
       <c r="G20" s="17">
-        <v>1249140</v>
+        <v>2582145</v>
       </c>
       <c r="H20" s="17">
-        <v>2582145</v>
+        <v>2868221</v>
       </c>
       <c r="I20" s="17">
-        <v>2868221</v>
+        <v>2936397</v>
       </c>
       <c r="J20" s="17">
-        <v>2936396</v>
+        <v>2258582</v>
       </c>
       <c r="K20" s="17">
-        <v>2258582</v>
+        <v>4975079</v>
       </c>
       <c r="L20" s="17">
-        <v>4975079</v>
+        <v>7218872</v>
       </c>
       <c r="M20" s="17">
-        <v>7218603</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7200898</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-387583</v>
+        <v>-86134</v>
       </c>
       <c r="E21" s="13">
-        <v>-86134</v>
+        <v>-417020</v>
       </c>
       <c r="F21" s="13">
-        <v>-417020</v>
+        <v>-297699</v>
       </c>
       <c r="G21" s="13">
-        <v>-297699</v>
+        <v>-632625</v>
       </c>
       <c r="H21" s="13">
-        <v>-632625</v>
+        <v>-158821</v>
       </c>
       <c r="I21" s="13">
-        <v>-158821</v>
+        <v>-719417</v>
       </c>
       <c r="J21" s="13">
-        <v>-719417</v>
+        <v>-397503</v>
       </c>
       <c r="K21" s="13">
-        <v>-397503</v>
+        <v>-1069642</v>
       </c>
       <c r="L21" s="13">
-        <v>-1069642</v>
+        <v>-116888</v>
       </c>
       <c r="M21" s="13">
-        <v>-116888</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1512188</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>1337719</v>
+        <v>1516541</v>
       </c>
       <c r="E22" s="17">
-        <v>1516541</v>
+        <v>1251059</v>
       </c>
       <c r="F22" s="17">
-        <v>1251059</v>
+        <v>951441</v>
       </c>
       <c r="G22" s="17">
-        <v>951441</v>
+        <v>1949520</v>
       </c>
       <c r="H22" s="17">
-        <v>1949520</v>
+        <v>2709400</v>
       </c>
       <c r="I22" s="17">
-        <v>2709400</v>
+        <v>2216980</v>
       </c>
       <c r="J22" s="17">
-        <v>2216979</v>
+        <v>1861079</v>
       </c>
       <c r="K22" s="17">
-        <v>1861079</v>
+        <v>3905437</v>
       </c>
       <c r="L22" s="17">
-        <v>3905437</v>
+        <v>7101984</v>
       </c>
       <c r="M22" s="17">
-        <v>7101715</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5688710</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1291,79 +1291,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>1337719</v>
+        <v>1516541</v>
       </c>
       <c r="E24" s="17">
-        <v>1516541</v>
+        <v>1251059</v>
       </c>
       <c r="F24" s="17">
-        <v>1251059</v>
+        <v>951441</v>
       </c>
       <c r="G24" s="17">
-        <v>951441</v>
+        <v>1949520</v>
       </c>
       <c r="H24" s="17">
-        <v>1949520</v>
+        <v>2709400</v>
       </c>
       <c r="I24" s="17">
-        <v>2709400</v>
+        <v>2216980</v>
       </c>
       <c r="J24" s="17">
-        <v>2216979</v>
+        <v>1861079</v>
       </c>
       <c r="K24" s="17">
-        <v>1861079</v>
+        <v>3905437</v>
       </c>
       <c r="L24" s="17">
-        <v>3905437</v>
+        <v>7101984</v>
       </c>
       <c r="M24" s="17">
-        <v>7101715</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5688710</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="E25" s="13">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="F25" s="13">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="G25" s="13">
-        <v>211</v>
+        <v>433</v>
       </c>
       <c r="H25" s="13">
-        <v>433</v>
+        <v>201</v>
       </c>
       <c r="I25" s="13">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="J25" s="13">
-        <v>493</v>
+        <v>414</v>
       </c>
       <c r="K25" s="13">
-        <v>414</v>
+        <v>289</v>
       </c>
       <c r="L25" s="13">
-        <v>289</v>
+        <v>526</v>
       </c>
       <c r="M25" s="13">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>4500000</v>
       </c>
       <c r="H26" s="11">
-        <v>4500000</v>
+        <v>13500000</v>
       </c>
       <c r="I26" s="11">
         <v>13500000</v>
@@ -1390,7 +1390,7 @@
         <v>4500000</v>
       </c>
       <c r="K26" s="11">
-        <v>4500000</v>
+        <v>13500000</v>
       </c>
       <c r="L26" s="11">
         <v>13500000</v>
@@ -1399,43 +1399,43 @@
         <v>13500000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E27" s="13">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="F27" s="13">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G27" s="13">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="H27" s="13">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="I27" s="13">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="J27" s="13">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="K27" s="13">
-        <v>138</v>
+        <v>289</v>
       </c>
       <c r="L27" s="13">
-        <v>289</v>
+        <v>526</v>
       </c>
       <c r="M27" s="13">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
